--- a/data/trans_orig/P6604-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C509CD63-D2D2-4FEA-A983-604EBA8045F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E8D22A-282F-47FF-9B4A-15F93D0EAD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9324E781-77B6-4A87-8D9C-4B797A5D73C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EBCE01F-EF85-4510-8662-6330B2D0EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="866">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,2626 +77,2566 @@
     <t>30,3%</t>
   </si>
   <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>23,04%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>9,77%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +3048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54306E1F-5311-497F-8B8A-4CC2B13C9832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C47E58-4720-4A36-87E0-33F344081A9A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4266,7 +4206,7 @@
         <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -4275,13 +4215,13 @@
         <v>31311</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -4290,13 +4230,13 @@
         <v>87914</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4251,13 @@
         <v>45680</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4326,13 +4266,13 @@
         <v>16737</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -4341,13 +4281,13 @@
         <v>62417</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4302,13 @@
         <v>39958</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4377,13 +4317,13 @@
         <v>8723</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -4392,13 +4332,13 @@
         <v>48681</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4353,13 @@
         <v>21126</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -4428,13 +4368,13 @@
         <v>7513</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -4443,13 +4383,13 @@
         <v>28639</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4445,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4517,13 +4457,13 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4532,13 +4472,13 @@
         <v>2674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -4547,13 +4487,13 @@
         <v>6737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4583,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4598,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4559,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -4634,13 +4574,13 @@
         <v>947</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -4652,7 +4592,7 @@
         <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>215</v>
@@ -4670,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4685,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4700,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,10 +4783,10 @@
         <v>228</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>695</v>
@@ -4855,13 +4795,13 @@
         <v>723932</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4816,13 @@
         <v>443382</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>153</v>
@@ -4891,13 +4831,13 @@
         <v>157125</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>580</v>
@@ -4906,13 +4846,13 @@
         <v>600507</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4867,13 @@
         <v>338655</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>99</v>
@@ -4942,13 +4882,13 @@
         <v>105372</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>414</v>
@@ -4957,7 +4897,7 @@
         <v>444027</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>248</v>
@@ -5041,7 +4981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2BD287-45EF-4623-B868-39EE025A611A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83586CE-F001-4794-8F4B-0A8830CA8A00}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5195,13 +5135,13 @@
         <v>61583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5156,13 @@
         <v>24186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5231,7 +5171,7 @@
         <v>29374</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>264</v>
@@ -5288,7 +5228,7 @@
         <v>273</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>274</v>
+        <v>68</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5297,13 +5237,13 @@
         <v>37571</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5258,13 @@
         <v>8224</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5333,13 +5273,13 @@
         <v>7768</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5348,13 +5288,13 @@
         <v>15992</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5362,13 @@
         <v>128047</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5437,13 +5377,13 @@
         <v>103366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -5452,13 +5392,13 @@
         <v>231413</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5413,13 @@
         <v>126868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -5488,13 +5428,13 @@
         <v>103471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -5503,13 +5443,13 @@
         <v>230339</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5464,13 @@
         <v>82335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5539,13 +5479,13 @@
         <v>47098</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -5554,13 +5494,13 @@
         <v>129433</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,10 +5622,10 @@
         <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -5694,13 +5634,13 @@
         <v>109411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -5709,13 +5649,13 @@
         <v>238907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5670,13 @@
         <v>152831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>96</v>
@@ -5745,10 +5685,10 @@
         <v>99895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>332</v>
@@ -5838,7 +5778,7 @@
         <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -5847,13 +5787,13 @@
         <v>29748</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5862,13 +5802,13 @@
         <v>69605</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5876,13 @@
         <v>119282</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -5951,13 +5891,13 @@
         <v>78524</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -5966,13 +5906,13 @@
         <v>197806</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5927,13 @@
         <v>105759</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -6002,13 +5942,13 @@
         <v>83979</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -6017,13 +5957,13 @@
         <v>189738</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +5978,13 @@
         <v>94403</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -6053,13 +5993,13 @@
         <v>43571</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -6068,13 +6008,13 @@
         <v>137974</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6029,13 @@
         <v>48219</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6104,13 +6044,13 @@
         <v>18040</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6119,13 +6059,13 @@
         <v>66259</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6133,13 @@
         <v>47941</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -6208,13 +6148,13 @@
         <v>19823</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M24" s="7">
         <v>63</v>
@@ -6223,13 +6163,13 @@
         <v>67764</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6184,13 @@
         <v>50991</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6259,13 +6199,13 @@
         <v>19869</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -6274,13 +6214,13 @@
         <v>70859</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6235,13 @@
         <v>38589</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6310,13 +6250,13 @@
         <v>20279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>412</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -6325,13 +6265,13 @@
         <v>58867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6286,13 @@
         <v>18844</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>416</v>
+        <v>120</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>417</v>
+        <v>243</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -6361,13 +6301,13 @@
         <v>9721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -6376,13 +6316,13 @@
         <v>28565</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6378,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6450,13 +6390,13 @@
         <v>2016</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6465,13 +6405,13 @@
         <v>981</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6480,13 +6420,13 @@
         <v>2997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6516,13 +6456,13 @@
         <v>891</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>26</v>
+        <v>423</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6531,13 +6471,13 @@
         <v>891</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6492,13 @@
         <v>1000</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6567,13 +6507,13 @@
         <v>967</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6582,13 +6522,13 @@
         <v>1966</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6618,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6633,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6647,13 @@
         <v>452342</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H34" s="7">
         <v>323</v>
@@ -6722,13 +6662,13 @@
         <v>348128</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M34" s="7">
         <v>735</v>
@@ -6737,13 +6677,13 @@
         <v>800471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,16 +6695,16 @@
         <v>442</v>
       </c>
       <c r="D35" s="7">
-        <v>460635</v>
+        <v>460634</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H35" s="7">
         <v>313</v>
@@ -6773,13 +6713,13 @@
         <v>337479</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M35" s="7">
         <v>755</v>
@@ -6788,13 +6728,13 @@
         <v>798114</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>452</v>
+        <v>291</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6749,13 @@
         <v>342396</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>449</v>
       </c>
       <c r="H36" s="7">
         <v>155</v>
@@ -6824,13 +6764,13 @@
         <v>172339</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="M36" s="7">
         <v>481</v>
@@ -6839,13 +6779,13 @@
         <v>514735</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6800,13 @@
         <v>159610</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>462</v>
+        <v>111</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H37" s="7">
         <v>82</v>
@@ -6875,13 +6815,13 @@
         <v>86734</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>466</v>
+        <v>157</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M37" s="7">
         <v>230</v>
@@ -6890,13 +6830,13 @@
         <v>246344</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,7 +6848,7 @@
         <v>1328</v>
       </c>
       <c r="D38" s="7">
-        <v>1414983</v>
+        <v>1414982</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -6974,7 +6914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6963F117-CA2A-477D-B84B-CB65C3AFEC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1081F3C-BA1D-47FB-9E32-EA18ED3DE0D2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6991,7 +6931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7098,13 +7038,13 @@
         <v>23521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -7113,13 +7053,13 @@
         <v>32440</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -7128,13 +7068,13 @@
         <v>55961</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7089,13 @@
         <v>19156</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>482</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -7164,13 +7104,13 @@
         <v>33114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -7179,13 +7119,13 @@
         <v>52270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7140,13 @@
         <v>26416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -7215,13 +7155,13 @@
         <v>17904</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -7230,13 +7170,13 @@
         <v>44321</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7191,13 @@
         <v>10015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -7266,13 +7206,13 @@
         <v>8397</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -7281,13 +7221,13 @@
         <v>18412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7295,13 @@
         <v>93270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>507</v>
+        <v>437</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -7370,13 +7310,13 @@
         <v>101403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>509</v>
+        <v>260</v>
       </c>
       <c r="M9" s="7">
         <v>195</v>
@@ -7388,10 +7328,10 @@
         <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7346,13 @@
         <v>109118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7421,13 +7361,13 @@
         <v>87560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -7436,13 +7376,13 @@
         <v>196678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7397,13 @@
         <v>79256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>507</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -7472,13 +7412,13 @@
         <v>62104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -7487,13 +7427,13 @@
         <v>141360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7448,13 @@
         <v>61584</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>527</v>
+        <v>181</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -7523,13 +7463,13 @@
         <v>21695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -7538,13 +7478,13 @@
         <v>83279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>535</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7552,13 @@
         <v>154304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -7627,13 +7567,13 @@
         <v>131178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -7642,13 +7582,13 @@
         <v>285482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7603,13 @@
         <v>146436</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="H15" s="7">
         <v>101</v>
@@ -7678,13 +7618,13 @@
         <v>99166</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>547</v>
+        <v>329</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -7693,13 +7633,13 @@
         <v>245602</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7654,13 @@
         <v>106354</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -7729,13 +7669,13 @@
         <v>54935</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -7744,13 +7684,13 @@
         <v>161289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>558</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7705,13 @@
         <v>48135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7780,13 +7720,13 @@
         <v>32134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>563</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -7795,13 +7735,13 @@
         <v>80269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7809,13 @@
         <v>120856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -7884,13 +7824,13 @@
         <v>89261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>572</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -7899,13 +7839,13 @@
         <v>210117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7860,13 @@
         <v>122017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>578</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -7935,13 +7875,13 @@
         <v>62280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -7950,13 +7890,13 @@
         <v>184297</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +7911,13 @@
         <v>74065</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="H21" s="7">
         <v>53</v>
@@ -7986,13 +7926,13 @@
         <v>57893</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>587</v>
+        <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="M21" s="7">
         <v>121</v>
@@ -8001,13 +7941,13 @@
         <v>131958</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>590</v>
+        <v>341</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,13 +7962,13 @@
         <v>47666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -8037,13 +7977,13 @@
         <v>32686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -8052,13 +7992,13 @@
         <v>80353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8066,13 @@
         <v>46285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>602</v>
+        <v>99</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -8141,13 +8081,13 @@
         <v>38704</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -8156,13 +8096,13 @@
         <v>84989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>590</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>608</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8117,13 @@
         <v>61011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -8192,13 +8132,13 @@
         <v>33896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>593</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>612</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -8207,13 +8147,13 @@
         <v>94907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8168,13 @@
         <v>34949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>617</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>618</v>
+        <v>237</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8243,13 +8183,13 @@
         <v>17705</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -8258,13 +8198,13 @@
         <v>52654</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>621</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>623</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8219,13 @@
         <v>21410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>603</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -8294,13 +8234,13 @@
         <v>15574</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>121</v>
+        <v>605</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>626</v>
+        <v>309</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -8312,10 +8252,10 @@
         <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>627</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,7 +8311,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8383,13 +8323,13 @@
         <v>2753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8398,13 +8338,13 @@
         <v>3108</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -8413,13 +8353,13 @@
         <v>5861</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,13 +8374,13 @@
         <v>2286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -8449,13 +8389,13 @@
         <v>2082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -8464,13 +8404,13 @@
         <v>4369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>620</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8425,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8500,13 +8440,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8515,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>642</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8536,13 +8476,13 @@
         <v>946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>139</v>
+        <v>622</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8551,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8566,13 +8506,13 @@
         <v>946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>484</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8580,13 @@
         <v>440990</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>547</v>
+        <v>329</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="H34" s="7">
         <v>386</v>
@@ -8655,13 +8595,13 @@
         <v>396094</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="M34" s="7">
         <v>796</v>
@@ -8670,13 +8610,13 @@
         <v>837084</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,13 +8631,13 @@
         <v>460023</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>315</v>
@@ -8706,13 +8646,13 @@
         <v>318099</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>655</v>
+        <v>365</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="M35" s="7">
         <v>741</v>
@@ -8721,13 +8661,13 @@
         <v>778122</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>543</v>
+        <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,13 +8682,13 @@
         <v>321041</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>642</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -8757,13 +8697,13 @@
         <v>210542</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>522</v>
+        <v>645</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="M36" s="7">
         <v>510</v>
@@ -8772,13 +8712,13 @@
         <v>531582</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8793,13 +8733,13 @@
         <v>189757</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="H37" s="7">
         <v>104</v>
@@ -8808,13 +8748,13 @@
         <v>110486</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="M37" s="7">
         <v>277</v>
@@ -8823,13 +8763,13 @@
         <v>300243</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8907,7 +8847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4F3638-1FDA-42CC-B280-453591B6BCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2ED2DA-46BB-400B-A537-E1594CD79017}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8924,7 +8864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9031,13 +8971,13 @@
         <v>8891</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -9046,13 +8986,13 @@
         <v>10379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -9061,13 +9001,13 @@
         <v>19269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>666</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,13 +9022,13 @@
         <v>14590</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>685</v>
+        <v>541</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -9097,13 +9037,13 @@
         <v>19953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -9112,13 +9052,13 @@
         <v>34543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,13 +9073,13 @@
         <v>7455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -9148,13 +9088,13 @@
         <v>11925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>680</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>421</v>
+        <v>681</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -9163,13 +9103,13 @@
         <v>19380</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>697</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>698</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,13 +9124,13 @@
         <v>6665</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -9199,13 +9139,13 @@
         <v>3060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -9214,13 +9154,13 @@
         <v>9725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>707</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9228,13 @@
         <v>48338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>709</v>
+        <v>581</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -9303,13 +9243,13 @@
         <v>64033</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -9318,13 +9258,13 @@
         <v>112371</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>715</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,13 +9279,13 @@
         <v>51692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>718</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -9354,13 +9294,13 @@
         <v>48673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -9369,13 +9309,13 @@
         <v>100365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>723</v>
+        <v>447</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9390,13 +9330,13 @@
         <v>42213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>704</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -9405,13 +9345,13 @@
         <v>27179</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -9420,13 +9360,13 @@
         <v>69391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>729</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>730</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9441,13 +9381,13 @@
         <v>36159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -9456,13 +9396,13 @@
         <v>17568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -9471,13 +9411,13 @@
         <v>53727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,13 +9485,13 @@
         <v>86192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>601</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -9560,13 +9500,13 @@
         <v>45566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>744</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="M14" s="7">
         <v>144</v>
@@ -9578,10 +9518,10 @@
         <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,13 +9536,13 @@
         <v>85375</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>410</v>
+        <v>727</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="H15" s="7">
         <v>99</v>
@@ -9611,13 +9551,13 @@
         <v>66277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>729</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>322</v>
+        <v>730</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="M15" s="7">
         <v>184</v>
@@ -9626,13 +9566,13 @@
         <v>151651</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>303</v>
+        <v>732</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,13 +9587,13 @@
         <v>53091</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -9662,13 +9602,13 @@
         <v>40261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>757</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -9677,13 +9617,13 @@
         <v>93351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>758</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9698,13 +9638,13 @@
         <v>20468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -9713,13 +9653,13 @@
         <v>17707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -9728,13 +9668,13 @@
         <v>38174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,13 +9742,13 @@
         <v>143456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -9817,13 +9757,13 @@
         <v>76078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>774</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -9832,13 +9772,13 @@
         <v>219534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9853,13 +9793,13 @@
         <v>90326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="H20" s="7">
         <v>134</v>
@@ -9868,13 +9808,13 @@
         <v>81114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>763</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -9883,13 +9823,13 @@
         <v>171440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>784</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9904,13 +9844,13 @@
         <v>61048</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -9919,13 +9859,13 @@
         <v>44007</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="M21" s="7">
         <v>127</v>
@@ -9934,13 +9874,13 @@
         <v>105055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>793</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9955,13 +9895,13 @@
         <v>29067</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>796</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -9970,13 +9910,13 @@
         <v>32997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -9985,13 +9925,13 @@
         <v>62064</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,13 +9999,13 @@
         <v>47769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -10074,13 +10014,13 @@
         <v>29677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>808</v>
+        <v>223</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -10089,13 +10029,13 @@
         <v>77446</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10110,13 +10050,13 @@
         <v>56368</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>811</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>813</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -10125,13 +10065,13 @@
         <v>30152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -10140,13 +10080,13 @@
         <v>86520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10161,13 +10101,13 @@
         <v>32114</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -10176,13 +10116,13 @@
         <v>24563</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
@@ -10191,13 +10131,13 @@
         <v>56677</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>237</v>
+        <v>802</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10212,13 +10152,13 @@
         <v>25861</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>826</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>828</v>
+        <v>688</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -10227,13 +10167,13 @@
         <v>12910</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>422</v>
+        <v>806</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="M27" s="7">
         <v>47</v>
@@ -10242,13 +10182,13 @@
         <v>38771</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>739</v>
+        <v>809</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,7 +10244,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -10316,13 +10256,13 @@
         <v>6378</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -10331,13 +10271,13 @@
         <v>1999</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>813</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -10346,13 +10286,13 @@
         <v>8377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>817</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,13 +10307,13 @@
         <v>562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -10382,13 +10322,13 @@
         <v>3752</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>841</v>
+        <v>330</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -10397,13 +10337,13 @@
         <v>4314</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>468</v>
+        <v>824</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,13 +10358,13 @@
         <v>852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -10433,13 +10373,13 @@
         <v>1769</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -10448,13 +10388,13 @@
         <v>2621</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>853</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10469,13 +10409,13 @@
         <v>607</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -10484,13 +10424,13 @@
         <v>1666</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -10499,13 +10439,13 @@
         <v>2272</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>683</v>
+        <v>838</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>859</v>
+        <v>690</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>569</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10573,13 +10513,13 @@
         <v>341025</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="H34" s="7">
         <v>301</v>
@@ -10588,13 +10528,13 @@
         <v>227730</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>392</v>
+        <v>563</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>862</v>
+        <v>760</v>
       </c>
       <c r="M34" s="7">
         <v>562</v>
@@ -10603,13 +10543,13 @@
         <v>568756</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>863</v>
+        <v>569</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10624,13 +10564,13 @@
         <v>298914</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="H35" s="7">
         <v>358</v>
@@ -10639,13 +10579,13 @@
         <v>249920</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>870</v>
+        <v>669</v>
       </c>
       <c r="M35" s="7">
         <v>644</v>
@@ -10654,13 +10594,13 @@
         <v>548834</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>757</v>
+        <v>523</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>333</v>
+        <v>850</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10675,13 +10615,13 @@
         <v>196772</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="H36" s="7">
         <v>201</v>
@@ -10690,13 +10630,13 @@
         <v>149704</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="M36" s="7">
         <v>386</v>
@@ -10708,10 +10648,10 @@
         <v>41</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>521</v>
+        <v>858</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10726,13 +10666,13 @@
         <v>118827</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>861</v>
       </c>
       <c r="H37" s="7">
         <v>101</v>
@@ -10741,13 +10681,13 @@
         <v>85907</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="M37" s="7">
         <v>202</v>
@@ -10756,13 +10696,13 @@
         <v>204734</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>884</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6604-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E8D22A-282F-47FF-9B4A-15F93D0EAD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BAFB657-CD66-49DD-A9FD-02E555171115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EBCE01F-EF85-4510-8662-6330B2D0EC74}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB275A7-761F-4BFE-BC41-A44A1262B78F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="880">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -194,7 +194,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>31,6%</t>
@@ -305,7 +305,7 @@
     <t>17,8%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>34,84%</t>
@@ -416,7 +416,7 @@
     <t>16,85%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>35,84%</t>
@@ -527,7 +527,7 @@
     <t>20,26%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>34,65%</t>
@@ -635,10 +635,13 @@
     <t>17,35%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -650,825 +653,828 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
     <t>23,58%</t>
   </si>
   <si>
@@ -1865,31 +1871,28 @@
     <t>9,89%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>40,12%</t>
@@ -1898,25 +1901,34 @@
     <t>82,2%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>28,79%</t>
@@ -2021,622 +2033,652 @@
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
 </sst>
 </file>
@@ -3048,8 +3090,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C47E58-4720-4A36-87E0-33F344081A9A}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AED956B-BC3B-4F85-94AC-478DAD82307D}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4451,19 +4493,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>4063</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4472,28 +4514,28 @@
         <v>2674</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="M29" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>6737</v>
+        <v>4266</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
@@ -4523,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>206</v>
@@ -4538,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>206</v>
@@ -4562,10 +4604,10 @@
         <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -4574,13 +4616,13 @@
         <v>947</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -4589,13 +4631,13 @@
         <v>1922</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>206</v>
@@ -4625,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>206</v>
@@ -4640,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>206</v>
@@ -4655,10 +4697,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -4685,10 +4727,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -4702,55 +4744,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>619</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>643500</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="7">
-        <v>494</v>
-      </c>
-      <c r="I34" s="7">
-        <v>515729</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
-        <v>1113</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1159228</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,49 +4799,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>477790</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
-        <v>234</v>
-      </c>
-      <c r="I35" s="7">
-        <v>246142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>723932</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,49 +4848,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>443382</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
-        <v>153</v>
-      </c>
-      <c r="I36" s="7">
-        <v>157125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>600507</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,49 +4897,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>338655</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
-        <v>99</v>
-      </c>
-      <c r="I37" s="7">
-        <v>105372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>444027</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,63 +4946,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>619</v>
+      </c>
+      <c r="D39" s="7">
+        <v>643500</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="7">
+        <v>494</v>
+      </c>
+      <c r="I39" s="7">
+        <v>515729</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1113</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1159228</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>461</v>
+      </c>
+      <c r="D40" s="7">
+        <v>477790</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="7">
+        <v>234</v>
+      </c>
+      <c r="I40" s="7">
+        <v>246142</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="7">
+        <v>695</v>
+      </c>
+      <c r="N40" s="7">
+        <v>723932</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>427</v>
+      </c>
+      <c r="D41" s="7">
+        <v>443382</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H41" s="7">
+        <v>153</v>
+      </c>
+      <c r="I41" s="7">
+        <v>157125</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M41" s="7">
+        <v>580</v>
+      </c>
+      <c r="N41" s="7">
+        <v>600507</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>315</v>
+      </c>
+      <c r="D42" s="7">
+        <v>338655</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="7">
+        <v>99</v>
+      </c>
+      <c r="I42" s="7">
+        <v>105372</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="7">
+        <v>414</v>
+      </c>
+      <c r="N42" s="7">
+        <v>444027</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1822</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1903326</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>980</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1024368</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2802</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2927694</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>250</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4981,8 +5271,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83586CE-F001-4794-8F4B-0A8830CA8A00}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D721599-5D1F-4408-8C72-2184D54B132E}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4998,7 +5288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5105,13 +5395,13 @@
         <v>25560</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -5120,13 +5410,13 @@
         <v>36023</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -5135,13 +5425,13 @@
         <v>61583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5446,13 @@
         <v>24186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5174,10 +5464,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -5186,13 +5476,13 @@
         <v>53561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5497,13 @@
         <v>23909</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5222,10 +5512,10 @@
         <v>13662</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>68</v>
@@ -5240,10 +5530,10 @@
         <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5548,13 @@
         <v>8224</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5273,13 +5563,13 @@
         <v>7768</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5288,13 +5578,13 @@
         <v>15992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5652,13 @@
         <v>128047</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5377,13 +5667,13 @@
         <v>103366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -5392,13 +5682,13 @@
         <v>231413</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5703,13 @@
         <v>126868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -5428,13 +5718,13 @@
         <v>103471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -5443,13 +5733,13 @@
         <v>230339</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5754,13 @@
         <v>82335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5479,13 +5769,13 @@
         <v>47098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -5494,13 +5784,13 @@
         <v>129433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5805,13 @@
         <v>44466</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5530,13 +5820,13 @@
         <v>21456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -5545,13 +5835,13 @@
         <v>65922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5909,13 @@
         <v>129495</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -5634,13 +5924,13 @@
         <v>109411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -5649,13 +5939,13 @@
         <v>238907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5960,13 @@
         <v>152831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H15" s="7">
         <v>96</v>
@@ -5685,13 +5975,13 @@
         <v>99895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M15" s="7">
         <v>246</v>
@@ -5700,13 +5990,13 @@
         <v>252726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +6011,13 @@
         <v>102160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5736,13 +6026,13 @@
         <v>46763</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -5751,13 +6041,13 @@
         <v>148923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +6062,13 @@
         <v>39857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -5787,13 +6077,13 @@
         <v>29748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5802,13 +6092,13 @@
         <v>69605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +6166,13 @@
         <v>119282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -5891,13 +6181,13 @@
         <v>78524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -5906,13 +6196,13 @@
         <v>197806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +6217,13 @@
         <v>105759</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -5942,13 +6232,13 @@
         <v>83979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -5957,13 +6247,13 @@
         <v>189738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +6268,13 @@
         <v>94403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -5993,13 +6283,13 @@
         <v>43571</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -6008,13 +6298,13 @@
         <v>137974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6319,13 @@
         <v>48219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6044,13 +6334,13 @@
         <v>18040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6059,13 +6349,13 @@
         <v>66259</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6423,13 @@
         <v>47941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -6148,13 +6438,13 @@
         <v>19823</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M24" s="7">
         <v>63</v>
@@ -6163,13 +6453,13 @@
         <v>67764</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6474,13 @@
         <v>50991</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6199,13 +6489,13 @@
         <v>19869</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -6217,10 +6507,10 @@
         <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6525,13 @@
         <v>38589</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6250,13 +6540,13 @@
         <v>20279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -6268,10 +6558,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6576,13 @@
         <v>18844</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -6301,13 +6591,13 @@
         <v>9721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -6316,13 +6606,13 @@
         <v>28565</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6680,13 @@
         <v>2016</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6405,13 +6695,13 @@
         <v>981</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6420,13 +6710,13 @@
         <v>2997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>422</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6456,13 +6746,13 @@
         <v>891</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6474,10 +6764,10 @@
         <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6782,13 @@
         <v>1000</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6507,13 +6797,13 @@
         <v>967</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6522,13 +6812,13 @@
         <v>1966</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6833,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>422</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6558,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>422</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6573,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,55 +6925,49 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>412</v>
-      </c>
-      <c r="D34" s="7">
-        <v>452342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>430</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>432</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
-        <v>323</v>
-      </c>
-      <c r="I34" s="7">
-        <v>348128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>433</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>435</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
-        <v>735</v>
-      </c>
-      <c r="N34" s="7">
-        <v>800471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>436</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>437</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>438</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,49 +6976,43 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>442</v>
-      </c>
-      <c r="D35" s="7">
-        <v>460634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>439</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="H35" s="7">
-        <v>313</v>
-      </c>
-      <c r="I35" s="7">
-        <v>337479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>442</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>443</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>444</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
-        <v>755</v>
-      </c>
-      <c r="N35" s="7">
-        <v>798114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>445</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>446</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,49 +7021,43 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>326</v>
-      </c>
-      <c r="D36" s="7">
-        <v>342396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>447</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>448</v>
+        <v>217</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>449</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
-        <v>155</v>
-      </c>
-      <c r="I36" s="7">
-        <v>172339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>451</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
-        <v>481</v>
-      </c>
-      <c r="N36" s="7">
-        <v>514735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>452</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>454</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,49 +7066,43 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>148</v>
-      </c>
-      <c r="D37" s="7">
-        <v>159610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>455</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>456</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
-        <v>82</v>
-      </c>
-      <c r="I37" s="7">
-        <v>86734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>458</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
-        <v>230</v>
-      </c>
-      <c r="N37" s="7">
-        <v>246344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>459</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>460</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>461</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,63 +7111,315 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>412</v>
+      </c>
+      <c r="D39" s="7">
+        <v>452342</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H39" s="7">
+        <v>323</v>
+      </c>
+      <c r="I39" s="7">
+        <v>348128</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M39" s="7">
+        <v>735</v>
+      </c>
+      <c r="N39" s="7">
+        <v>800470</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>442</v>
+      </c>
+      <c r="D40" s="7">
+        <v>460635</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H40" s="7">
+        <v>313</v>
+      </c>
+      <c r="I40" s="7">
+        <v>337479</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M40" s="7">
+        <v>755</v>
+      </c>
+      <c r="N40" s="7">
+        <v>798114</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>326</v>
+      </c>
+      <c r="D41" s="7">
+        <v>342396</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H41" s="7">
+        <v>155</v>
+      </c>
+      <c r="I41" s="7">
+        <v>172339</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" s="7">
+        <v>481</v>
+      </c>
+      <c r="N41" s="7">
+        <v>514735</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>148</v>
+      </c>
+      <c r="D42" s="7">
+        <v>159610</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H42" s="7">
+        <v>82</v>
+      </c>
+      <c r="I42" s="7">
+        <v>86734</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M42" s="7">
+        <v>230</v>
+      </c>
+      <c r="N42" s="7">
+        <v>246344</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1328</v>
       </c>
-      <c r="D38" s="7">
-        <v>1414982</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1414983</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>873</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>944681</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2201</v>
       </c>
-      <c r="N38" s="7">
-        <v>2359664</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>250</v>
+      <c r="N43" s="7">
+        <v>2359663</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6914,8 +7432,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1081F3C-BA1D-47FB-9E32-EA18ED3DE0D2}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD3A2DD-E571-4728-B85D-229FBB16991F}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6931,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7038,13 +7556,13 @@
         <v>23521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -7053,13 +7571,13 @@
         <v>32440</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -7068,13 +7586,13 @@
         <v>55961</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7607,13 @@
         <v>19156</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -7104,13 +7622,13 @@
         <v>33114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -7119,13 +7637,13 @@
         <v>52270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7658,13 @@
         <v>26416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -7155,13 +7673,13 @@
         <v>17904</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -7170,13 +7688,13 @@
         <v>44321</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7709,13 @@
         <v>10015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -7206,13 +7724,13 @@
         <v>8397</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -7221,13 +7739,13 @@
         <v>18412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7813,13 @@
         <v>93270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -7310,13 +7828,13 @@
         <v>101403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M9" s="7">
         <v>195</v>
@@ -7328,10 +7846,10 @@
         <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,10 +7867,10 @@
         <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7361,13 +7879,13 @@
         <v>87560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -7376,10 +7894,10 @@
         <v>196678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>96</v>
@@ -7397,13 +7915,13 @@
         <v>79256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -7412,13 +7930,13 @@
         <v>62104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -7427,13 +7945,13 @@
         <v>141360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,10 +7969,10 @@
         <v>181</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -7463,13 +7981,13 @@
         <v>21695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -7478,13 +7996,13 @@
         <v>83279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +8070,13 @@
         <v>154304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -7567,13 +8085,13 @@
         <v>131178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -7582,13 +8100,13 @@
         <v>285482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +8121,13 @@
         <v>146436</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H15" s="7">
         <v>101</v>
@@ -7618,13 +8136,13 @@
         <v>99166</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -7636,10 +8154,10 @@
         <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +8172,13 @@
         <v>106354</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -7669,13 +8187,13 @@
         <v>54935</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -7684,13 +8202,13 @@
         <v>161289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +8223,13 @@
         <v>48135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7720,13 +8238,13 @@
         <v>32134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -7735,13 +8253,13 @@
         <v>80269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,7 +8301,7 @@
         <v>752</v>
       </c>
       <c r="N18" s="7">
-        <v>772642</v>
+        <v>772643</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -7809,13 +8327,13 @@
         <v>120856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -7824,13 +8342,13 @@
         <v>89261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -7839,13 +8357,13 @@
         <v>210117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,10 +8378,10 @@
         <v>122017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>91</v>
@@ -7875,13 +8393,13 @@
         <v>62280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -7890,13 +8408,13 @@
         <v>184297</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,13 +8429,13 @@
         <v>74065</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>53</v>
@@ -7929,10 +8447,10 @@
         <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M21" s="7">
         <v>121</v>
@@ -7941,13 +8459,13 @@
         <v>131958</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7962,10 +8480,10 @@
         <v>47666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>159</v>
@@ -7977,13 +8495,13 @@
         <v>32686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -7992,13 +8510,13 @@
         <v>80353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8066,13 +8584,13 @@
         <v>46285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -8081,13 +8599,13 @@
         <v>38704</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -8096,13 +8614,13 @@
         <v>84989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,13 +8635,13 @@
         <v>61011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -8132,13 +8650,13 @@
         <v>33896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -8147,13 +8665,13 @@
         <v>94907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,13 +8686,13 @@
         <v>34949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8183,13 +8701,13 @@
         <v>17705</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -8201,10 +8719,10 @@
         <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,13 +8737,13 @@
         <v>21410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -8234,13 +8752,13 @@
         <v>15574</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -8252,10 +8770,10 @@
         <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,19 +8835,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>2753</v>
+        <v>1958</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>609</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8338,28 +8856,28 @@
         <v>3108</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>5861</v>
+        <v>5066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8374,13 +8892,13 @@
         <v>2286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -8389,13 +8907,13 @@
         <v>2082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -8404,13 +8922,13 @@
         <v>4369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,13 +8943,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8440,13 +8958,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8455,13 +8973,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>451</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8476,13 +8994,13 @@
         <v>946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8491,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8506,13 +9024,13 @@
         <v>946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,10 +9039,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -8551,10 +9069,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N33" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -8568,55 +9086,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>440990</v>
+        <v>795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>627</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>386</v>
-      </c>
-      <c r="I34" s="7">
-        <v>396094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>795</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="M34" s="7">
-        <v>796</v>
-      </c>
-      <c r="N34" s="7">
-        <v>837084</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>632</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>633</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8625,49 +9141,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>460023</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>634</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>635</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>133</v>
+        <v>629</v>
       </c>
       <c r="H35" s="7">
-        <v>315</v>
-      </c>
-      <c r="I35" s="7">
-        <v>318099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>636</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>637</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>778122</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>638</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>639</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,49 +9190,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>321041</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>641</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>642</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="7">
-        <v>210542</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="M36" s="7">
-        <v>510</v>
-      </c>
-      <c r="N36" s="7">
-        <v>531582</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>648</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,49 +9239,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>189757</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>651</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="H37" s="7">
-        <v>104</v>
-      </c>
-      <c r="I37" s="7">
-        <v>110486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>653</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>654</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>655</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>300243</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>656</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>657</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8778,63 +9288,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>795</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>795</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>410</v>
+      </c>
+      <c r="D39" s="7">
+        <v>440990</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="H39" s="7">
+        <v>386</v>
+      </c>
+      <c r="I39" s="7">
+        <v>396094</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="M39" s="7">
+        <v>796</v>
+      </c>
+      <c r="N39" s="7">
+        <v>837084</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>426</v>
+      </c>
+      <c r="D40" s="7">
+        <v>460023</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="7">
+        <v>315</v>
+      </c>
+      <c r="I40" s="7">
+        <v>318099</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="M40" s="7">
+        <v>741</v>
+      </c>
+      <c r="N40" s="7">
+        <v>778122</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>304</v>
+      </c>
+      <c r="D41" s="7">
+        <v>321041</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="H41" s="7">
+        <v>206</v>
+      </c>
+      <c r="I41" s="7">
+        <v>210542</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="M41" s="7">
+        <v>510</v>
+      </c>
+      <c r="N41" s="7">
+        <v>531582</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>173</v>
+      </c>
+      <c r="D42" s="7">
+        <v>189757</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H42" s="7">
+        <v>104</v>
+      </c>
+      <c r="I42" s="7">
+        <v>110486</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="M42" s="7">
+        <v>277</v>
+      </c>
+      <c r="N42" s="7">
+        <v>300243</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1313</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1411811</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>1011</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1035221</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2324</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2447032</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>250</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -8847,8 +9613,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2ED2DA-46BB-400B-A537-E1594CD79017}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3CCA75-D1E5-47E1-B45D-01D942A413FC}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8864,7 +9630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8968,46 +9734,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>8891</v>
+        <v>7857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>10379</v>
+        <v>8755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>19269</v>
+        <v>16612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,46 +9785,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>14590</v>
+        <v>19181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>541</v>
+        <v>674</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>19953</v>
+        <v>17892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>34543</v>
+        <v>37073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>675</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,46 +9836,46 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>7455</v>
+        <v>6971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>11925</v>
+        <v>10489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>19380</v>
+        <v>17461</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>453</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>687</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>683</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,46 +9887,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>6665</v>
+        <v>6022</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3060</v>
+        <v>2904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>9725</v>
+        <v>8926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>523</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9172,7 +9938,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>37601</v>
+        <v>40031</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -9187,7 +9953,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>45317</v>
+        <v>40041</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -9202,7 +9968,7 @@
         <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>82918</v>
+        <v>80072</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -9225,46 +9991,46 @@
         <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>48338</v>
+        <v>45820</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
       </c>
       <c r="I9" s="7">
-        <v>64033</v>
+        <v>58351</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
       </c>
       <c r="N9" s="7">
-        <v>112371</v>
+        <v>104171</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>177</v>
+        <v>702</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,46 +10042,46 @@
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>51692</v>
+        <v>52300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>705</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>48673</v>
+        <v>43977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>708</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>701</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>100365</v>
+        <v>96276</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>447</v>
+        <v>710</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,46 +10093,46 @@
         <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>42213</v>
+        <v>41950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>27179</v>
+        <v>24216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>69391</v>
+        <v>66166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>718</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>719</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,46 +10144,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>36159</v>
+        <v>34872</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>711</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>17568</v>
+        <v>16052</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
       </c>
       <c r="N12" s="7">
-        <v>53727</v>
+        <v>50924</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9429,7 +10195,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>178402</v>
+        <v>174941</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -9444,7 +10210,7 @@
         <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>157453</v>
+        <v>142596</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -9459,7 +10225,7 @@
         <v>272</v>
       </c>
       <c r="N13" s="7">
-        <v>335855</v>
+        <v>317537</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -9482,46 +10248,46 @@
         <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>86192</v>
+        <v>81979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>730</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>45566</v>
+        <v>42651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>733</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="M14" s="7">
         <v>144</v>
       </c>
       <c r="N14" s="7">
-        <v>131758</v>
+        <v>124629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>735</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9533,46 +10299,46 @@
         <v>85</v>
       </c>
       <c r="D15" s="7">
-        <v>85375</v>
+        <v>82882</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>726</v>
+        <v>633</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="H15" s="7">
         <v>99</v>
       </c>
       <c r="I15" s="7">
-        <v>66277</v>
+        <v>61679</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="M15" s="7">
         <v>184</v>
       </c>
       <c r="N15" s="7">
-        <v>151651</v>
+        <v>144561</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>586</v>
+        <v>743</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9584,46 +10350,46 @@
         <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>53091</v>
+        <v>50623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>40261</v>
+        <v>37184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>738</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>750</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
       </c>
       <c r="N16" s="7">
-        <v>93351</v>
+        <v>87808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>751</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9635,46 +10401,46 @@
         <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>20468</v>
+        <v>19680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>17707</v>
+        <v>16613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>746</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>38174</v>
+        <v>36293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>747</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>748</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,7 +10452,7 @@
         <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>245125</v>
+        <v>235164</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -9701,7 +10467,7 @@
         <v>244</v>
       </c>
       <c r="I18" s="7">
-        <v>169810</v>
+        <v>158127</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -9716,7 +10482,7 @@
         <v>482</v>
       </c>
       <c r="N18" s="7">
-        <v>414935</v>
+        <v>393291</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -9739,46 +10505,46 @@
         <v>87</v>
       </c>
       <c r="D19" s="7">
-        <v>143456</v>
+        <v>331442</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
       </c>
       <c r="I19" s="7">
-        <v>76078</v>
+        <v>70473</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>765</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
       </c>
       <c r="N19" s="7">
-        <v>219534</v>
+        <v>401915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9790,46 +10556,46 @@
         <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>90326</v>
+        <v>87772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>760</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>134</v>
       </c>
       <c r="I20" s="7">
-        <v>81114</v>
+        <v>75540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
       </c>
       <c r="N20" s="7">
-        <v>171440</v>
+        <v>163312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>719</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9841,46 +10607,46 @@
         <v>61</v>
       </c>
       <c r="D21" s="7">
-        <v>61048</v>
+        <v>56902</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>573</v>
+        <v>776</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
       </c>
       <c r="I21" s="7">
-        <v>44007</v>
+        <v>40402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="M21" s="7">
         <v>127</v>
       </c>
       <c r="N21" s="7">
-        <v>105055</v>
+        <v>97304</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>516</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9892,46 +10658,46 @@
         <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>29067</v>
+        <v>26826</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>787</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>32997</v>
+        <v>54082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
       </c>
       <c r="N22" s="7">
-        <v>62064</v>
+        <v>80908</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9943,7 +10709,7 @@
         <v>270</v>
       </c>
       <c r="D23" s="7">
-        <v>323898</v>
+        <v>502942</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -9958,7 +10724,7 @@
         <v>349</v>
       </c>
       <c r="I23" s="7">
-        <v>234195</v>
+        <v>240497</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -9973,7 +10739,7 @@
         <v>619</v>
       </c>
       <c r="N23" s="7">
-        <v>558094</v>
+        <v>743440</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -9996,46 +10762,46 @@
         <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>47769</v>
+        <v>45438</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
       </c>
       <c r="I24" s="7">
-        <v>29677</v>
+        <v>27391</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
       </c>
       <c r="N24" s="7">
-        <v>77446</v>
+        <v>72829</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>787</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10047,46 +10813,46 @@
         <v>59</v>
       </c>
       <c r="D25" s="7">
-        <v>56368</v>
+        <v>52350</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>800</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>802</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
       </c>
       <c r="I25" s="7">
-        <v>30152</v>
+        <v>28034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
       </c>
       <c r="N25" s="7">
-        <v>86520</v>
+        <v>80385</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>793</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10098,46 +10864,46 @@
         <v>36</v>
       </c>
       <c r="D26" s="7">
-        <v>32114</v>
+        <v>30036</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>797</v>
+        <v>732</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
       </c>
       <c r="I26" s="7">
-        <v>24563</v>
+        <v>22671</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
       </c>
       <c r="N26" s="7">
-        <v>56677</v>
+        <v>52707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>802</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10149,46 +10915,46 @@
         <v>25</v>
       </c>
       <c r="D27" s="7">
-        <v>25861</v>
+        <v>24086</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>815</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>688</v>
+        <v>817</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
       </c>
       <c r="I27" s="7">
-        <v>12910</v>
+        <v>11938</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="M27" s="7">
         <v>47</v>
       </c>
       <c r="N27" s="7">
-        <v>38771</v>
+        <v>36024</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>539</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10200,7 +10966,7 @@
         <v>170</v>
       </c>
       <c r="D28" s="7">
-        <v>162112</v>
+        <v>151910</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -10215,7 +10981,7 @@
         <v>168</v>
       </c>
       <c r="I28" s="7">
-        <v>97302</v>
+        <v>90035</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -10230,7 +10996,7 @@
         <v>338</v>
       </c>
       <c r="N28" s="7">
-        <v>259414</v>
+        <v>241945</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -10250,49 +11016,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>6378</v>
+        <v>4489</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>1999</v>
+        <v>1909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>815</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N29" s="7">
-        <v>8377</v>
+        <v>6397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>816</v>
+        <v>360</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,46 +11070,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
       </c>
       <c r="I30" s="7">
-        <v>3752</v>
+        <v>3548</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>669</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
       </c>
       <c r="N30" s="7">
-        <v>4314</v>
+        <v>4060</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10355,46 +11121,46 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>1769</v>
+        <v>1631</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>828</v>
+        <v>281</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>2621</v>
+        <v>2457</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10406,46 +11172,46 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1666</v>
+        <v>1560</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>2272</v>
+        <v>2143</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>690</v>
+        <v>850</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>839</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10454,10 +11220,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="7">
-        <v>8400</v>
+        <v>6410</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -10472,7 +11238,7 @@
         <v>17</v>
       </c>
       <c r="I33" s="7">
-        <v>9185</v>
+        <v>8648</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -10484,10 +11250,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N33" s="7">
-        <v>17585</v>
+        <v>15057</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -10501,55 +11267,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>341025</v>
+        <v>1598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>840</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>842</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>301</v>
-      </c>
-      <c r="I34" s="7">
-        <v>227730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>504</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>563</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>760</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>568756</v>
+        <v>1598</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>844</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10558,49 +11322,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>298914</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>845</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>846</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>847</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
-        <v>358</v>
-      </c>
-      <c r="I35" s="7">
-        <v>249920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>848</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>669</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>548834</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>849</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>523</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>850</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10609,49 +11371,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>196772</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>851</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>852</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>853</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
-        <v>201</v>
-      </c>
-      <c r="I36" s="7">
-        <v>149704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>854</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>855</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>856</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>346476</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>857</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>858</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10660,49 +11420,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>118827</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>859</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>860</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>861</v>
+        <v>207</v>
       </c>
       <c r="H37" s="7">
-        <v>101</v>
-      </c>
-      <c r="I37" s="7">
-        <v>85907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>862</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>863</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>864</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>204734</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>656</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>865</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10711,63 +11469,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>261</v>
+      </c>
+      <c r="D39" s="7">
+        <v>518622</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="H39" s="7">
+        <v>301</v>
+      </c>
+      <c r="I39" s="7">
+        <v>209531</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="M39" s="7">
+        <v>562</v>
+      </c>
+      <c r="N39" s="7">
+        <v>728153</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>286</v>
+      </c>
+      <c r="D40" s="7">
+        <v>294998</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="H40" s="7">
+        <v>358</v>
+      </c>
+      <c r="I40" s="7">
+        <v>230671</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="M40" s="7">
+        <v>644</v>
+      </c>
+      <c r="N40" s="7">
+        <v>525668</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>185</v>
+      </c>
+      <c r="D41" s="7">
+        <v>187308</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="H41" s="7">
+        <v>201</v>
+      </c>
+      <c r="I41" s="7">
+        <v>136594</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="M41" s="7">
+        <v>386</v>
+      </c>
+      <c r="N41" s="7">
+        <v>323902</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>101</v>
+      </c>
+      <c r="D42" s="7">
+        <v>112069</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="H42" s="7">
+        <v>101</v>
+      </c>
+      <c r="I42" s="7">
+        <v>103149</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="M42" s="7">
+        <v>202</v>
+      </c>
+      <c r="N42" s="7">
+        <v>215218</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>833</v>
       </c>
-      <c r="D38" s="7">
-        <v>955539</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1112997</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>961</v>
       </c>
-      <c r="I38" s="7">
-        <v>713261</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>679944</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>1794</v>
       </c>
-      <c r="N38" s="7">
-        <v>1668800</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>250</v>
+      <c r="N43" s="7">
+        <v>1792941</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
